--- a/backend/database/PostgreSQL-persons.xlsx
+++ b/backend/database/PostgreSQL-persons.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="create-persons" sheetId="1" r:id="rId1"/>
     <sheet name="create-accounts" sheetId="2" r:id="rId2"/>
+    <sheet name="insert_persons" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t xml:space="preserve">CREATE TABLE </t>
   </si>
@@ -98,6 +99,27 @@
   </si>
   <si>
     <t>NOT NULL UNIQUE CHECK (email ~* '^.+@.+\..+$'),</t>
+  </si>
+  <si>
+    <t>INSERT INTO persons VALUES (1, 'hzlopes@senado.leg.br', 'Henrique', 'Zaidan', '2339', 'SEPLAG', null, 'E');</t>
+  </si>
+  <si>
+    <t>INSERT INTO persons VALUES (2, 'pedrohs@senado.leg.br', 'Pedro Henrique', 'Serafim', '2339', 'SEPLAG', null, 'E');</t>
+  </si>
+  <si>
+    <t>INSERT INTO persons VALUES (3, 'igorlima@senado.leg.br', 'Igor', 'Grimaldi', '3629', 'SEGEEN', null, 'E');</t>
+  </si>
+  <si>
+    <t>INSERT INTO persons VALUES (999, 'chefedegabinete@senado.leg.br', 'Chefe', 'de Gabinete', '9999', 'SF', null, 'C');</t>
+  </si>
+  <si>
+    <t>INSERT INTO private.accounts VALUES (1, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02');</t>
+  </si>
+  <si>
+    <t>INSERT INTO private.accounts VALUES (2, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02');</t>
+  </si>
+  <si>
+    <t>INSERT INTO private.accounts VALUES (3, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02');</t>
   </si>
 </sst>
 </file>
@@ -177,6 +199,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
+          <cell r="A1" t="str">
+            <v xml:space="preserve">CREATE TABLE </v>
+          </cell>
           <cell r="B1" t="str">
             <v>departments</v>
           </cell>
@@ -187,8 +212,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v xml:space="preserve">CREATE TABLE </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>INSERT INTO departments VALUES ('SF', 'SF', 'Senado Federal', true);</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -206,6 +243,9 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
+          <cell r="A1" t="str">
+            <v xml:space="preserve">CREATE TABLE </v>
+          </cell>
           <cell r="B1" t="str">
             <v>contracts</v>
           </cell>
@@ -219,7 +259,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INSERT INTO contracts VALUES ('CT-2016-0134', '2016-09-23', null, '2016-09-23', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -239,13 +285,19 @@
             <v>asset_category_type</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="A3" t="str">
+        <row r="2">
+          <cell r="A2" t="str">
             <v>person_category_type</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CREATE TYPE asset_category_type AS ENUM ('F', 'E');</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -540,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>[3]list!$A$3</f>
+        <f>[3]list!A2</f>
         <v>person_category_type</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -674,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -756,4 +808,57 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="95.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/backend/database/PostgreSQL-persons.xlsx
+++ b/backend/database/PostgreSQL-persons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="create-persons" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t xml:space="preserve">CREATE TABLE </t>
   </si>
@@ -89,9 +89,6 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
     <t>SERIAL PRIMARY KEY,</t>
   </si>
   <si>
@@ -113,13 +110,22 @@
     <t>INSERT INTO persons VALUES (999, 'chefedegabinete@senado.leg.br', 'Chefe', 'de Gabinete', '9999', 'SF', null, 'C');</t>
   </si>
   <si>
-    <t>INSERT INTO private.accounts VALUES (1, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02');</t>
-  </si>
-  <si>
-    <t>INSERT INTO private.accounts VALUES (2, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02');</t>
-  </si>
-  <si>
-    <t>INSERT INTO private.accounts VALUES (3, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02');</t>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>NOT NULL DEFAULT true</t>
+  </si>
+  <si>
+    <t>INSERT INTO private.accounts VALUES (1, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02', true);</t>
+  </si>
+  <si>
+    <t>INSERT INTO private.accounts VALUES (2, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02', true);</t>
+  </si>
+  <si>
+    <t>INSERT INTO private.accounts VALUES (3, crypt('123456', gen_salt('bf', 10)), '2019-08-01', '2019-08-02', true);</t>
   </si>
 </sst>
 </file>
@@ -619,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -633,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +769,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -791,17 +797,28 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -814,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -825,37 +842,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
